--- a/part5/Part5-Test Plan and Result.xlsx
+++ b/part5/Part5-Test Plan and Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\certificate-4\certificate-4\javascript\Assessment Two\Part 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3540567-05EA-48FB-BC69-D27FAC61A7CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6627DB-2CC1-4F79-84ED-43C7EECB422D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{A051503C-2696-4D28-93A7-2AD31EB342DC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="12" xr2:uid="{A051503C-2696-4D28-93A7-2AD31EB342DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase1 (FireFox)" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,18 @@
     <sheet name="Testcase10 (Firefox)" sheetId="17" r:id="rId10"/>
     <sheet name="Testcase11 (Firefox)" sheetId="19" r:id="rId11"/>
     <sheet name="Testcase12 (FireFox)" sheetId="20" r:id="rId12"/>
+    <sheet name="Testcase1 (Chrome)" sheetId="22" r:id="rId13"/>
+    <sheet name="Testcase2 (Chrome)" sheetId="23" r:id="rId14"/>
+    <sheet name="Testcase3 (Chrome)" sheetId="24" r:id="rId15"/>
+    <sheet name="Testcase4 (Chrome)" sheetId="25" r:id="rId16"/>
+    <sheet name="Testcase5 (Chrome)" sheetId="26" r:id="rId17"/>
+    <sheet name="Testcase6 (Chrome)" sheetId="27" r:id="rId18"/>
+    <sheet name="Testcase7 (Chrome)" sheetId="28" r:id="rId19"/>
+    <sheet name="Testcase8 (Chrome)" sheetId="29" r:id="rId20"/>
+    <sheet name="Testcase9 (Chrome)" sheetId="30" r:id="rId21"/>
+    <sheet name="Testcase10 (Chrome)" sheetId="31" r:id="rId22"/>
+    <sheet name="Testcase11 (Chrome)" sheetId="32" r:id="rId23"/>
+    <sheet name="Testcase12 (Chrome)" sheetId="33" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="77">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -255,6 +267,18 @@
   </si>
   <si>
     <t>Light mode was activated</t>
+  </si>
+  <si>
+    <t>Open app in Google Chrome</t>
+  </si>
+  <si>
+    <t>The app opened in Google Chrome</t>
+  </si>
+  <si>
+    <t>All app sections shown in Google Chrome</t>
+  </si>
+  <si>
+    <t>App open in Google Chrome</t>
   </si>
 </sst>
 </file>
@@ -538,9 +562,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -550,55 +571,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -610,55 +592,64 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -676,11 +667,44 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -999,173 +1023,1055 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D3C5A2-D3EA-4591-9949-3DFDA06EE910}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="14" style="3" customWidth="1"/>
-    <col min="4" max="5" width="19.140625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="27.140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="6">
+      <c r="F3" s="21">
         <v>45762</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="20"/>
-      <c r="J3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="8"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D35283F-09D6-4EC3-AFCC-DC8A9D05DCB5}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21">
+        <v>45762</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9575D65-FA32-4A0E-B4C7-69B2F114E66E}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="1">
+        <v>11</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="46">
+        <v>45762</v>
+      </c>
+      <c r="G3" s="47"/>
+      <c r="H3" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="44"/>
+      <c r="J3" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="49"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E234D550-50BD-4BB6-8B09-9CBBD5D4927F}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="1">
+        <v>12</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21">
+        <v>45762</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF44127B-BF94-4BE3-A16B-2160DE77CABD}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21">
+        <v>45762</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -1196,200 +2102,200 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D35283F-09D6-4EC3-AFCC-DC8A9D05DCB5}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EE483D-9350-4AF3-B543-8B3EAE3CA845}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A7" sqref="A7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="14" style="3" customWidth="1"/>
-    <col min="4" max="5" width="19.140625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="27.140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1">
-        <v>10</v>
-      </c>
-      <c r="D1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="6">
+      <c r="F3" s="21">
         <v>45762</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="20"/>
-      <c r="J3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="8"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
+      <c r="B8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -1423,200 +2329,200 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9575D65-FA32-4A0E-B4C7-69B2F114E66E}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE45D9C-223C-444C-8FE8-F15A1D86C207}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+      <selection activeCell="A7" sqref="A7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="14" style="3" customWidth="1"/>
-    <col min="4" max="5" width="19.140625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="27.140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1">
-        <v>11</v>
-      </c>
-      <c r="D1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31">
+      <c r="E3" s="20"/>
+      <c r="F3" s="21">
         <v>45762</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="29" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="28"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="38" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="38" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="43"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="B7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -1650,211 +2556,892 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E234D550-50BD-4BB6-8B09-9CBBD5D4927F}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF5CF63-F78C-4034-B59D-340C1FAAAE45}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="A7" sqref="A7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="14" style="3" customWidth="1"/>
-    <col min="4" max="5" width="19.140625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="27.140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1">
-        <v>12</v>
-      </c>
-      <c r="D1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="6">
+      <c r="F3" s="21">
         <v>45762</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="20"/>
-      <c r="J3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="8"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="B7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8DAE54-E3ED-4F7A-98B8-23BF52B99A78}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21">
+        <v>45762</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDB7554-C612-4FD5-BD77-521DD579A2F7}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="1">
+        <v>6</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21">
+        <v>45762</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC09126A-76C9-4BF5-974F-8A7709509492}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="1">
+        <v>7</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21">
+        <v>45762</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:E6"/>
@@ -1887,190 +3474,1325 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="14" style="3" customWidth="1"/>
-    <col min="4" max="5" width="19.140625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="27.140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="6">
+      <c r="F3" s="21">
         <v>45762</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="20"/>
-      <c r="J3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="8"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2DC8BE-0406-4E4A-B49B-1A5DFE403DB2}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21">
+        <v>45762</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE56C8B-4A46-403D-814C-9A08BFABA9C5}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="1">
+        <v>9</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21">
+        <v>45762</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3AD178-D46F-4887-9CFF-148C9C3E245F}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21">
+        <v>45762</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FB8767-CF10-4BEF-9384-AC59B1811CA1}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="1">
+        <v>11</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="46">
+        <v>45762</v>
+      </c>
+      <c r="G3" s="47"/>
+      <c r="H3" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="44"/>
+      <c r="J3" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="49"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF162995-5A04-40D3-B3EF-7721193F9614}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="1">
+        <v>12</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21">
+        <v>45762</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -2114,206 +4836,193 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="14" style="3" customWidth="1"/>
-    <col min="4" max="5" width="19.140625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="27.140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1">
         <v>3</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="6">
+      <c r="F3" s="21">
         <v>45762</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="20"/>
-      <c r="J3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="8"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:H7"/>
@@ -2326,6 +5035,19 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2341,206 +5063,193 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="14" style="3" customWidth="1"/>
-    <col min="4" max="5" width="19.140625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="27.140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1">
         <v>4</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="6">
+      <c r="F3" s="21">
         <v>45762</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="20"/>
-      <c r="J3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="8"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:H7"/>
@@ -2553,6 +5262,19 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2568,206 +5290,193 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="14" style="3" customWidth="1"/>
-    <col min="4" max="5" width="19.140625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="27.140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1">
         <v>5</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="6">
+      <c r="F3" s="21">
         <v>45762</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="20"/>
-      <c r="J3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="8"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:H7"/>
@@ -2780,6 +5489,19 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2795,206 +5517,193 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="14" style="3" customWidth="1"/>
-    <col min="4" max="5" width="19.140625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="27.140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1">
         <v>6</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="6">
+      <c r="F3" s="21">
         <v>45762</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="20"/>
-      <c r="J3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="8"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:H7"/>
@@ -3007,6 +5716,19 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3022,206 +5744,193 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="14" style="3" customWidth="1"/>
-    <col min="4" max="5" width="19.140625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="27.140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1">
         <v>7</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="6">
+      <c r="F3" s="21">
         <v>45762</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="20"/>
-      <c r="J3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="8"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:H7"/>
@@ -3234,6 +5943,19 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3249,206 +5971,193 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="14" style="3" customWidth="1"/>
-    <col min="4" max="5" width="19.140625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="27.140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1">
         <v>8</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="6">
+      <c r="F3" s="21">
         <v>45762</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="20"/>
-      <c r="J3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="8"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:H7"/>
@@ -3461,6 +6170,19 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3476,206 +6198,193 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="14" style="3" customWidth="1"/>
-    <col min="4" max="5" width="19.140625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="27.140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1">
         <v>9</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="6">
+      <c r="F3" s="21">
         <v>45762</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="20"/>
-      <c r="J3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="8"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:H7"/>
@@ -3688,6 +6397,19 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
